--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.42873533333333</v>
+        <v>25.23990433333333</v>
       </c>
       <c r="H2">
-        <v>121.286206</v>
+        <v>75.719713</v>
       </c>
       <c r="I2">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="J2">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.21127</v>
+        <v>0.05031533333333333</v>
       </c>
       <c r="N2">
-        <v>0.63381</v>
+        <v>0.150946</v>
       </c>
       <c r="O2">
-        <v>0.02468048274231428</v>
+        <v>0.005485022167780355</v>
       </c>
       <c r="P2">
-        <v>0.02468048274231428</v>
+        <v>0.005485022167780356</v>
       </c>
       <c r="Q2">
-        <v>8.541378913873332</v>
+        <v>1.269954199833111</v>
       </c>
       <c r="R2">
-        <v>76.87241022485999</v>
+        <v>11.429587798498</v>
       </c>
       <c r="S2">
-        <v>0.002051830836253593</v>
+        <v>0.0002837787359806758</v>
       </c>
       <c r="T2">
-        <v>0.002051830836253593</v>
+        <v>0.0002837787359806759</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.42873533333333</v>
+        <v>25.23990433333333</v>
       </c>
       <c r="H3">
-        <v>121.286206</v>
+        <v>75.719713</v>
       </c>
       <c r="I3">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="J3">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>10.401082</v>
       </c>
       <c r="O3">
-        <v>0.4050168422751231</v>
+        <v>0.377950825718477</v>
       </c>
       <c r="P3">
-        <v>0.405016842275123</v>
+        <v>0.377950825718477</v>
       </c>
       <c r="Q3">
-        <v>140.1675304527658</v>
+        <v>87.50743821438512</v>
       </c>
       <c r="R3">
-        <v>1261.507774074892</v>
+        <v>787.566943929466</v>
       </c>
       <c r="S3">
-        <v>0.03367138539625786</v>
+        <v>0.01955405179859923</v>
       </c>
       <c r="T3">
-        <v>0.03367138539625786</v>
+        <v>0.01955405179859923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.42873533333333</v>
+        <v>25.23990433333333</v>
       </c>
       <c r="H4">
-        <v>121.286206</v>
+        <v>75.719713</v>
       </c>
       <c r="I4">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="J4">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.881907999999999</v>
+        <v>5.655880666666666</v>
       </c>
       <c r="N4">
-        <v>14.645724</v>
+        <v>16.967642</v>
       </c>
       <c r="O4">
-        <v>0.5703026749825627</v>
+        <v>0.6165641521137426</v>
       </c>
       <c r="P4">
-        <v>0.5703026749825626</v>
+        <v>0.6165641521137426</v>
       </c>
       <c r="Q4">
-        <v>197.3693664536826</v>
+        <v>142.7538869474162</v>
       </c>
       <c r="R4">
-        <v>1776.324298083144</v>
+        <v>1284.784982526746</v>
       </c>
       <c r="S4">
-        <v>0.04741254969542815</v>
+        <v>0.03189919573445223</v>
       </c>
       <c r="T4">
-        <v>0.04741254969542814</v>
+        <v>0.03189919573445223</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1237.41626</v>
       </c>
       <c r="I5">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965644</v>
       </c>
       <c r="J5">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965646</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.21127</v>
+        <v>0.05031533333333333</v>
       </c>
       <c r="N5">
-        <v>0.63381</v>
+        <v>0.150946</v>
       </c>
       <c r="O5">
-        <v>0.02468048274231428</v>
+        <v>0.005485022167780355</v>
       </c>
       <c r="P5">
-        <v>0.02468048274231428</v>
+        <v>0.005485022167780356</v>
       </c>
       <c r="Q5">
-        <v>87.14297775006666</v>
+        <v>20.75367053132889</v>
       </c>
       <c r="R5">
-        <v>784.2867997505999</v>
+        <v>186.78303478196</v>
       </c>
       <c r="S5">
-        <v>0.02093369826037426</v>
+        <v>0.004637529755887153</v>
       </c>
       <c r="T5">
-        <v>0.02093369826037425</v>
+        <v>0.004637529755887155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1237.41626</v>
       </c>
       <c r="I6">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965644</v>
       </c>
       <c r="J6">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965646</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>10.401082</v>
       </c>
       <c r="O6">
-        <v>0.4050168422751231</v>
+        <v>0.377950825718477</v>
       </c>
       <c r="P6">
-        <v>0.405016842275123</v>
+        <v>0.377950825718477</v>
       </c>
       <c r="Q6">
         <v>1430.051998710369</v>
@@ -818,10 +818,10 @@
         <v>12870.46798839332</v>
       </c>
       <c r="S6">
-        <v>0.3435305725208028</v>
+        <v>0.3195535308548903</v>
       </c>
       <c r="T6">
-        <v>0.3435305725208028</v>
+        <v>0.3195535308548904</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1237.41626</v>
       </c>
       <c r="I7">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965644</v>
       </c>
       <c r="J7">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965646</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.881907999999999</v>
+        <v>5.655880666666666</v>
       </c>
       <c r="N7">
-        <v>14.645724</v>
+        <v>16.967642</v>
       </c>
       <c r="O7">
-        <v>0.5703026749825627</v>
+        <v>0.6165641521137426</v>
       </c>
       <c r="P7">
-        <v>0.5703026749825626</v>
+        <v>0.6165641521137426</v>
       </c>
       <c r="Q7">
-        <v>2013.650779674693</v>
+        <v>2332.892900517657</v>
       </c>
       <c r="R7">
-        <v>18122.85701707224</v>
+        <v>20996.03610465892</v>
       </c>
       <c r="S7">
-        <v>0.483724092426313</v>
+        <v>0.521298640985787</v>
       </c>
       <c r="T7">
-        <v>0.4837240924263129</v>
+        <v>0.521298640985787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.396921</v>
+        <v>50.137933</v>
       </c>
       <c r="H8">
-        <v>100.190763</v>
+        <v>150.413799</v>
       </c>
       <c r="I8">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="J8">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.21127</v>
+        <v>0.05031533333333333</v>
       </c>
       <c r="N8">
-        <v>0.63381</v>
+        <v>0.150946</v>
       </c>
       <c r="O8">
-        <v>0.02468048274231428</v>
+        <v>0.005485022167780355</v>
       </c>
       <c r="P8">
-        <v>0.02468048274231428</v>
+        <v>0.005485022167780356</v>
       </c>
       <c r="Q8">
-        <v>7.055767499669999</v>
+        <v>2.522706811539333</v>
       </c>
       <c r="R8">
-        <v>63.50190749702999</v>
+        <v>22.704361303854</v>
       </c>
       <c r="S8">
-        <v>0.001694953645686432</v>
+        <v>0.0005637136759125255</v>
       </c>
       <c r="T8">
-        <v>0.001694953645686432</v>
+        <v>0.0005637136759125256</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.396921</v>
+        <v>50.137933</v>
       </c>
       <c r="H9">
-        <v>100.190763</v>
+        <v>150.413799</v>
       </c>
       <c r="I9">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="J9">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>10.401082</v>
       </c>
       <c r="O9">
-        <v>0.4050168422751231</v>
+        <v>0.377950825718477</v>
       </c>
       <c r="P9">
-        <v>0.405016842275123</v>
+        <v>0.377950825718477</v>
       </c>
       <c r="Q9">
-        <v>115.788037956174</v>
+        <v>173.8295841478353</v>
       </c>
       <c r="R9">
-        <v>1042.092341605566</v>
+        <v>1564.466257330518</v>
       </c>
       <c r="S9">
-        <v>0.02781488435806239</v>
+        <v>0.0388432430649875</v>
       </c>
       <c r="T9">
-        <v>0.02781488435806239</v>
+        <v>0.0388432430649875</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.396921</v>
+        <v>50.137933</v>
       </c>
       <c r="H10">
-        <v>100.190763</v>
+        <v>150.413799</v>
       </c>
       <c r="I10">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="J10">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.881907999999999</v>
+        <v>5.655880666666666</v>
       </c>
       <c r="N10">
-        <v>14.645724</v>
+        <v>16.967642</v>
       </c>
       <c r="O10">
-        <v>0.5703026749825627</v>
+        <v>0.6165641521137426</v>
       </c>
       <c r="P10">
-        <v>0.5703026749825626</v>
+        <v>0.6165641521137426</v>
       </c>
       <c r="Q10">
-        <v>163.040695805268</v>
+        <v>283.5741659213286</v>
       </c>
       <c r="R10">
-        <v>1467.366262247412</v>
+        <v>2552.167493291957</v>
       </c>
       <c r="S10">
-        <v>0.03916603286082149</v>
+        <v>0.06336631539350333</v>
       </c>
       <c r="T10">
-        <v>0.03916603286082148</v>
+        <v>0.06336631539350333</v>
       </c>
     </row>
   </sheetData>
